--- a/gibuy/output/horaires_shabbat.xlsx
+++ b/gibuy/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A3:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +434,167 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>10/01/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Vayechi</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16:36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>16:36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vayakhel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>14:35</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16:05</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>16:40</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>18:40</t>
         </is>
       </c>
     </row>

--- a/gibuy/output/horaires_shabbat.xlsx
+++ b/gibuy/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P4"/>
+  <dimension ref="A5:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +434,167 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>21/03/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Vayakhel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tazria-Metzora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>18:25</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>18:40</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,6 +638,31 @@
           <t>צאת שבת</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Dimanche</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Jeudi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>צאת הכוכבים Dimanche</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>צאת הכוכבים Jeudi</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה ביניים</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -660,6 +685,31 @@
           <t>17:16</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -682,6 +732,31 @@
           <t>17:17</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -704,6 +779,31 @@
           <t>17:20</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -726,6 +826,31 @@
           <t>17:24</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -748,6 +873,31 @@
           <t>17:29</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -770,6 +920,31 @@
           <t>17:35</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16:56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -792,6 +967,31 @@
           <t>17:41</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -814,6 +1014,31 @@
           <t>17:47</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -836,6 +1061,31 @@
           <t>17:53</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -858,6 +1108,31 @@
           <t>17:58</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -880,6 +1155,31 @@
           <t>18:04</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -902,6 +1202,31 @@
           <t>18:10</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -924,6 +1249,31 @@
           <t>18:15</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -946,6 +1296,31 @@
           <t>18:20</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -968,6 +1343,31 @@
           <t>18:25</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18:14</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>18:16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -990,6 +1390,31 @@
           <t>18:30</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1012,6 +1437,31 @@
           <t>19:35</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1034,6 +1484,31 @@
           <t>19:40</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1052,6 +1527,31 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1074,6 +1574,31 @@
           <t>19:51</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1096,6 +1621,31 @@
           <t>19:56</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1118,6 +1668,31 @@
           <t>20:02</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>19:53</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1140,6 +1715,31 @@
           <t>20:08</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1162,6 +1762,31 @@
           <t>20:13</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>20:03</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1184,6 +1809,31 @@
           <t>20:19</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1206,6 +1856,31 @@
           <t>20:23</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20:12</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1228,6 +1903,31 @@
           <t>20:28</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1250,6 +1950,31 @@
           <t>20:31</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1272,6 +1997,31 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1294,6 +2044,31 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1316,6 +2091,31 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1338,6 +2138,31 @@
           <t>20:31</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1360,6 +2185,31 @@
           <t>20:27</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1382,6 +2232,31 @@
           <t>20:23</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +2279,31 @@
           <t>20:17</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>19:59</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1426,6 +2326,31 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>19:56</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1448,6 +2373,31 @@
           <t>20:02</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1470,6 +2420,31 @@
           <t>19:54</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1492,6 +2467,31 @@
           <t>19:45</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1514,6 +2514,31 @@
           <t>19:35</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1536,6 +2561,31 @@
           <t>19:26</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1556,6 +2606,31 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>19:16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>18:10</t>
         </is>
       </c>
     </row>

--- a/gibuy/output/horaires_shabbat.xlsx
+++ b/gibuy/output/horaires_shabbat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="השבת" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="השבת" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,8 +19,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,14 +60,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -469,29 +470,29 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>molad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>שקיעה Dimanche</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>שקיעה Jeudi</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>מנחה ביניים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ערבית ביניים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>molad</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tekoufa</t>
@@ -499,7 +500,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>45807</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -520,29 +521,29 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>45814</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -563,29 +564,29 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>45821</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -606,29 +607,29 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>45828</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -651,32 +652,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום חמישי בשעה 21:58 + 4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 21:58 + 4</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>45835</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -697,29 +698,29 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>45842</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -740,22 +741,22 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -767,7 +768,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -788,29 +789,29 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -833,32 +834,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 10:42 + 5</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>45863</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -879,29 +880,29 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>45870</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -922,29 +923,29 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>45877</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -965,29 +966,29 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>19:29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>45884</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1008,29 +1009,29 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>45891</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1053,32 +1054,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום ראשון בשעה 23:26 + 6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>19:09</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 23:26 + 6</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>45898</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1099,29 +1100,29 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>45905</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1142,29 +1143,29 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>18:56</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>18:51</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>45912</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1185,29 +1186,29 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>18:47</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>18:42</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>45919</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1228,29 +1229,29 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>18:38</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>18:33</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>45926</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1271,29 +1272,29 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>18:29</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>18:24</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>45933</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1314,22 +1315,22 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
@@ -1341,7 +1342,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>45947</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1364,32 +1365,32 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום רביעי בשעה 0:54 + 8</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>18:03</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>17:59</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום רביעי בשעה 0:54 + 8</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>45954</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1410,29 +1411,29 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>16:56</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>16:52</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>45961</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1453,29 +1454,29 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>16:49</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>16:46</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>45968</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1496,29 +1497,29 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>16:41</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>45975</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1541,32 +1542,32 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום חמישי בשעה 13:38 + 9</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>16:39</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 13:38 + 9</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>45982</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1587,29 +1588,29 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>45989</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1630,29 +1631,29 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>45996</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1673,29 +1674,29 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>46003</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1718,32 +1719,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>46010</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1766,32 +1767,32 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>16:42</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>46017</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1812,29 +1813,29 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>16:46</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>46024</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1855,22 +1856,22 @@
       <c r="E32" t="b">
         <v>0</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>16:49</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>16:52</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
@@ -1882,7 +1883,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>46031</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1903,29 +1904,29 @@
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>16:54</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>16:58</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>46038</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1948,32 +1949,32 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום ראשון בשעה 15:06 + 11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>17:01</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>17:04</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 15:06 + 11</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>46045</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1994,29 +1995,29 @@
       <c r="E35" t="b">
         <v>0</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>17:07</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>17:11</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>46052</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -2037,29 +2038,29 @@
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>17:14</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>17:17</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <v>46059</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -2080,29 +2081,29 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>17:24</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <v>46066</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -2125,32 +2126,32 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>17:26</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <v>46073</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -2171,29 +2172,29 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>17:32</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <v>46080</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -2214,29 +2215,29 @@
       <c r="E40" t="b">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>17:38</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>17:41</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <v>46087</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -2257,29 +2258,29 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>17:43</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>17:46</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <v>46094</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2302,32 +2303,32 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>17:48</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>17:51</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="4" t="n">
         <v>46101</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2348,29 +2349,29 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>17:53</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="4" t="n">
         <v>46108</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2391,29 +2392,29 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="4" t="n">
         <v>46122</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2436,32 +2437,32 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שישי בשעה 5:18 + 14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>19:07</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 5:18 + 14</t>
-        </is>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="4" t="n">
         <v>46129</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2482,29 +2483,29 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>19:12</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="4" t="n">
         <v>46136</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2525,29 +2526,29 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="4" t="n">
         <v>46143</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2568,29 +2569,29 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="4" t="n">
         <v>46150</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2611,29 +2612,29 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>19:27</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="4" t="n">
         <v>46157</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2656,32 +2657,32 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שבת בשעה 18:02 + 15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>19:34</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 18:02 + 15</t>
-        </is>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="4" t="n">
         <v>46164</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2702,29 +2703,29 @@
       <c r="E51" t="b">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>19:36</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>19:39</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="4" t="n">
         <v>46171</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2745,29 +2746,29 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="4" t="n">
         <v>46178</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2788,29 +2789,29 @@
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="4" t="n">
         <v>46185</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2833,32 +2834,32 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שני בשעה 6:46 + 16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שני בשעה 6:46 + 16</t>
-        </is>
-      </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="4" t="n">
         <v>46192</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2879,29 +2880,29 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="4" t="n">
         <v>46199</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2922,29 +2923,29 @@
       <c r="E56" t="b">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="4" t="n">
         <v>46206</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2965,22 +2966,22 @@
       <c r="E57" t="b">
         <v>0</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -2992,7 +2993,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="4" t="n">
         <v>46213</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -3015,32 +3016,32 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שלישי בשעה 19:30 + 17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 19:30 + 17</t>
-        </is>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="4" t="n">
         <v>46220</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -3061,29 +3062,29 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="4" t="n">
         <v>46227</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -3104,29 +3105,29 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>19:42</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>19:39</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="4" t="n">
         <v>46234</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -3147,29 +3148,29 @@
       <c r="E61" t="b">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>19:36</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>19:33</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="4" t="n">
         <v>46241</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -3192,32 +3193,32 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום חמישי בשעה 8:15 + 0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>19:26</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 8:15 + 0</t>
-        </is>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="4" t="n">
         <v>46248</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -3238,29 +3239,29 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>19:23</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>19:19</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="4" t="n">
         <v>46255</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -3281,29 +3282,29 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>19:11</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="4" t="n">
         <v>46262</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -3324,29 +3325,29 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>19:07</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>19:02</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="4" t="n">
         <v>46269</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -3367,29 +3368,29 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>18:53</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="4" t="n">
         <v>46283</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -3410,22 +3411,22 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>18:34</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -3558,37 +3559,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>45842</v>
+      <c r="A2" s="5" t="n">
+        <v>45926</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>26/09/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>חוקת</t>
+          <t>פרשת וילך</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>חוקת</t>
+          <t>פרשת וילך</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3618,37 +3619,37 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -3656,11 +3657,7 @@
           <t>לא</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2025-07-08 02:09</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gibuy/output/horaires_shabbat.xlsx
+++ b/gibuy/output/horaires_shabbat.xlsx
@@ -3560,36 +3560,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45926</v>
+        <v>45961</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26/09/2025</t>
+          <t>31/10/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>פרשת וילך</t>
+          <t>פרשת לך־לך</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>פרשת וילך</t>
+          <t>פרשת לך־לך</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -3619,37 +3619,37 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
